--- a/eBuildings.xlsx
+++ b/eBuildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irikol/Desktop/Environment/Shift Zero/Electric Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irikol/Desktop/Environment/Shift Zero/WA-Electric-Buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527035A8-1522-E94A-80D3-BA30EADE6A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4755306-3239-B042-A1C5-5236420810E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1520" yWindow="-19920" windowWidth="26860" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="-18680" windowWidth="26860" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="396">
   <si>
     <t>Timestamp</t>
   </si>
@@ -669,9 +669,6 @@
   </si>
   <si>
     <t>https://millerhull.com/project/spu-south-transfer-station-2/</t>
-  </si>
-  <si>
-    <t>https://www.nxtbook.com/nxtbooks/ashrae/ashraejournal_201411/index.php?startid=64#/p/64</t>
   </si>
   <si>
     <t>https://www.pae-engineers.com/projects/samaritan-healthcare-moses-lake</t>
@@ -1187,6 +1184,87 @@
   </si>
   <si>
     <t>https://lmnarchitects.com/project/seattle-aquarium-ocean-pavilion</t>
+  </si>
+  <si>
+    <t>img_link</t>
+  </si>
+  <si>
+    <t>https://www.spokanehealthpeninsula.com/wp-content/uploads/2020/09/840-Building-SW-daytime-view_ext-1-2048x1152.jpg</t>
+  </si>
+  <si>
+    <t>https://thumb.spokesman.com/eYucGNuYQD6p3wVNyToKYscgBKA=/2500x0/media.spokesman.com/photos/2020/09/17/5f62a6ba2d2d9.hires.jpg</t>
+  </si>
+  <si>
+    <t>https://ecotope.com/wp-content/uploads/Outside-photo-by-Greg-Skaggs-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ligo.caltech.edu/system/pages/images/192/page_wide/Cover_pic_updated.jpg?1608758877</t>
+  </si>
+  <si>
+    <t>https://kingcounty.gov/~/media/services/parks-recreation/parks/hero-images/Central%20Maintenance%20Facility.ashx?la=en</t>
+  </si>
+  <si>
+    <t>https://betterbuildingssolutioncenter.energy.gov/sites/default/files/styles/showcase_project_image/public/showcase-projects/images/Airport%20front_0.JPG?itok=fxPeEWKD</t>
+  </si>
+  <si>
+    <t>https://millerhull.com/wp-content/uploads/STS.BB_.005.L-1600x1281.jpg</t>
+  </si>
+  <si>
+    <t>https://www.rfmarch.com/wp-content/uploads/2015/03/king.jpg</t>
+  </si>
+  <si>
+    <t>http://ecotope.com/project/king-county-housing-authority/</t>
+  </si>
+  <si>
+    <t>https://www.samaritanhealthcare.com/wp-content/uploads/2020/07/SMH_Hospital_v2.jpg</t>
+  </si>
+  <si>
+    <t>https://wsdot.wa.gov/sites/default/files/2021-09/2021_0429_MukFerryTerm-53.JPG</t>
+  </si>
+  <si>
+    <t>http://projects.phius.org/uploads/poppi--1_1589473700.jpg</t>
+  </si>
+  <si>
+    <t>https://www.aiatopten.org/sites/default/files/styles/popup/public/0-014.jpg?itok=sv7hAUbT</t>
+  </si>
+  <si>
+    <t>https://des.wa.gov/sites/default/files/public/images/Facilities/Buildings/Campus%20Daycare-5.jpg?=fcade</t>
+  </si>
+  <si>
+    <t>https://www.shoesmithcox.com/files/2014/01/H2_arrival-01-1024x806.jpg</t>
+  </si>
+  <si>
+    <t>http://architizer-prod.imgix.net/media/1427910780767Wilkes_04_bittermann.jpg?q=60&amp;auto=format,compress&amp;cs=strip&amp;w=1680</t>
+  </si>
+  <si>
+    <t>https://whatcomwebsite-inflightstudio.netdna-ssl.com/wp-content/uploads/sites/15/2016/07/OHS-Web.jpg</t>
+  </si>
+  <si>
+    <t>https://lmnarchitects.com/wp-content/uploads/2021/05/134af9a8-af47-4ec6-80f8-284d2e8d63dd.jpg</t>
+  </si>
+  <si>
+    <t>https://blog.pencol.edu/wp-content/uploads/2015/12/AHECE-Cover_01.jpg</t>
+  </si>
+  <si>
+    <t>https://test.quantumce.com/wp-content/uploads/2019/07/NWMAR.NL_.009.M-e1564519322548.jpg</t>
+  </si>
+  <si>
+    <t>https://wpcdn.us-midwest-1.vip.tn-cloud.net/www.hpbmagazine.org/content/uploads/data-import/c99fd186/Rice_p22.jpg</t>
+  </si>
+  <si>
+    <t>https://archive.kitsapsun.com/Services/image.ashx?domain=www.kitsapsun.com&amp;file=520111128180739003_5567881_ver1.0_640_480.jpg&amp;resize=</t>
+  </si>
+  <si>
+    <t>https://www.heronskey.org/wp-content/uploads/HeronsKey2512_About800x800.jpg</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/5a2735e18c56a84c7eaa04c3/1533596364261-Z9HZHBBPKK0HIXDYLFKE/puyallup_longhouse-commons_bldg.jpg?format=2500w</t>
+  </si>
+  <si>
+    <t>https://educationsnapshots.com/wp-content/uploads/sites/4/2018/01/westside-school-seattle-SKL-architects-9-768x515.jpg</t>
+  </si>
+  <si>
+    <t>https://www.7directionsarchitects.com/wp-content/uploads/2016/01/5807_105_FPO-1350x560.jpg</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,6 +1296,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1A1AA6"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1259,7 +1343,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1269,6 +1353,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1608,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1628,32 +1713,32 @@
     <col min="11" max="11" width="39.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="101.6640625" customWidth="1"/>
-    <col min="15" max="15" width="88.83203125" customWidth="1"/>
-    <col min="16" max="16" width="86" customWidth="1"/>
-    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="83.6640625" customWidth="1"/>
+    <col min="15" max="16" width="54" customWidth="1"/>
+    <col min="17" max="17" width="86" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1668,43 +1753,46 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1739,26 +1827,29 @@
         <v>199</v>
       </c>
       <c r="O2" s="2"/>
-      <c r="P2" t="s">
-        <v>245</v>
+      <c r="P2" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="Q2" t="s">
-        <v>294</v>
-      </c>
-      <c r="S2" t="s">
-        <v>310</v>
+        <v>244</v>
+      </c>
+      <c r="R2" t="s">
+        <v>293</v>
       </c>
       <c r="T2" t="s">
-        <v>315</v>
-      </c>
-      <c r="U2">
+        <v>309</v>
+      </c>
+      <c r="U2" t="s">
+        <v>314</v>
+      </c>
+      <c r="V2">
         <v>47.657193399999997</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>-117.4235106</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1796,23 +1887,26 @@
         <v>200</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="P3" t="s">
-        <v>246</v>
-      </c>
-      <c r="R3" t="s">
-        <v>304</v>
-      </c>
-      <c r="T3" t="s">
-        <v>316</v>
-      </c>
-      <c r="U3">
+      <c r="P3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>245</v>
+      </c>
+      <c r="S3" t="s">
+        <v>303</v>
+      </c>
+      <c r="U3" t="s">
+        <v>315</v>
+      </c>
+      <c r="V3">
         <v>47.658373500000003</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-117.4022303265658</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1844,28 +1938,31 @@
         <v>143</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="P4" t="s">
-        <v>247</v>
-      </c>
-      <c r="R4" t="s">
-        <v>305</v>
-      </c>
-      <c r="T4" t="s">
-        <v>316</v>
-      </c>
-      <c r="U4">
+        <v>351</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>246</v>
+      </c>
+      <c r="S4" t="s">
+        <v>304</v>
+      </c>
+      <c r="U4" t="s">
+        <v>315</v>
+      </c>
+      <c r="V4">
         <v>47.542624799999999</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>-122.0614734415897</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1900,29 +1997,32 @@
         <v>201</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" t="s">
-        <v>248</v>
+      <c r="P5" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="Q5" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="R5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="S5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="T5" t="s">
-        <v>317</v>
-      </c>
-      <c r="U5">
+        <v>310</v>
+      </c>
+      <c r="U5" t="s">
+        <v>316</v>
+      </c>
+      <c r="V5">
         <v>46.4551552</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-119.4074955</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1954,23 +2054,26 @@
         <v>202</v>
       </c>
       <c r="O6" s="2"/>
-      <c r="P6" t="s">
-        <v>249</v>
-      </c>
-      <c r="R6" t="s">
-        <v>307</v>
-      </c>
-      <c r="T6" t="s">
-        <v>318</v>
-      </c>
-      <c r="U6">
+      <c r="P6" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>248</v>
+      </c>
+      <c r="S6" t="s">
+        <v>306</v>
+      </c>
+      <c r="U6" t="s">
+        <v>317</v>
+      </c>
+      <c r="V6">
         <v>47.483364100000003</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-122.1757125</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2005,23 +2108,26 @@
         <v>203</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" t="s">
-        <v>247</v>
-      </c>
-      <c r="R7" t="s">
-        <v>305</v>
-      </c>
-      <c r="T7" t="s">
-        <v>316</v>
-      </c>
-      <c r="U7">
+      <c r="P7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>246</v>
+      </c>
+      <c r="S7" t="s">
+        <v>304</v>
+      </c>
+      <c r="U7" t="s">
+        <v>315</v>
+      </c>
+      <c r="V7">
         <v>47.529844300000001</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-122.30089181028571</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2059,23 +2165,26 @@
         <v>204</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" t="s">
-        <v>250</v>
+      <c r="P8" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="Q8" t="s">
-        <v>296</v>
-      </c>
-      <c r="T8" t="s">
-        <v>316</v>
-      </c>
-      <c r="U8">
+        <v>249</v>
+      </c>
+      <c r="R8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U8" t="s">
+        <v>315</v>
+      </c>
+      <c r="V8">
         <v>47.533116700000008</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-122.33296489999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2113,29 +2222,32 @@
         <v>148</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" t="s">
-        <v>251</v>
+      <c r="P9" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="Q9" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="R9" t="s">
-        <v>305</v>
-      </c>
-      <c r="T9" t="s">
-        <v>316</v>
-      </c>
-      <c r="U9">
+        <v>296</v>
+      </c>
+      <c r="S9" t="s">
+        <v>304</v>
+      </c>
+      <c r="U9" t="s">
+        <v>315</v>
+      </c>
+      <c r="V9">
         <v>47.449272099999988</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-122.2535934</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2170,32 +2282,35 @@
         <v>149</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O10" s="2"/>
-      <c r="P10" t="s">
-        <v>252</v>
+      <c r="P10" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="Q10" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="R10" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="S10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="T10" t="s">
-        <v>316</v>
-      </c>
-      <c r="U10">
+        <v>311</v>
+      </c>
+      <c r="U10" t="s">
+        <v>315</v>
+      </c>
+      <c r="V10">
         <v>47.112094650000003</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-119.2606211963614</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2230,26 +2345,29 @@
         <v>150</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" t="s">
-        <v>253</v>
+      <c r="P11" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="Q11" t="s">
-        <v>299</v>
-      </c>
-      <c r="T11" t="s">
-        <v>316</v>
-      </c>
-      <c r="U11">
+        <v>252</v>
+      </c>
+      <c r="R11" t="s">
+        <v>298</v>
+      </c>
+      <c r="U11" t="s">
+        <v>315</v>
+      </c>
+      <c r="V11">
         <v>47.950199150000003</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-122.2972769961295</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2284,29 +2402,32 @@
         <v>151</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" t="s">
-        <v>254</v>
+      <c r="P12" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="Q12" t="s">
-        <v>300</v>
-      </c>
-      <c r="S12" t="s">
-        <v>313</v>
+        <v>253</v>
+      </c>
+      <c r="R12" t="s">
+        <v>299</v>
       </c>
       <c r="T12" t="s">
-        <v>316</v>
-      </c>
-      <c r="U12">
+        <v>312</v>
+      </c>
+      <c r="U12" t="s">
+        <v>315</v>
+      </c>
+      <c r="V12">
         <v>47.0760893</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-122.90183949999999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2338,26 +2459,29 @@
         <v>152</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O13" s="2"/>
-      <c r="P13" t="s">
-        <v>250</v>
+      <c r="P13" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="Q13" t="s">
-        <v>296</v>
-      </c>
-      <c r="T13" t="s">
-        <v>316</v>
-      </c>
-      <c r="U13">
+        <v>249</v>
+      </c>
+      <c r="R13" t="s">
+        <v>295</v>
+      </c>
+      <c r="U13" t="s">
+        <v>315</v>
+      </c>
+      <c r="V13">
         <v>47.047951900000001</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-122.89803910000001</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2389,28 +2513,31 @@
         <v>153</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="P14" t="s">
-        <v>255</v>
+      <c r="P14" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="Q14" t="s">
-        <v>301</v>
-      </c>
-      <c r="T14" t="s">
-        <v>319</v>
-      </c>
-      <c r="U14">
+        <v>254</v>
+      </c>
+      <c r="R14" t="s">
+        <v>300</v>
+      </c>
+      <c r="U14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V14">
         <v>47.046908999999999</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-122.91980100000001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2442,29 +2569,32 @@
         <v>154</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O15" s="2"/>
-      <c r="P15" t="s">
-        <v>256</v>
+      <c r="P15" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="Q15" t="s">
-        <v>302</v>
-      </c>
-      <c r="S15" t="s">
-        <v>314</v>
+        <v>255</v>
+      </c>
+      <c r="R15" t="s">
+        <v>301</v>
       </c>
       <c r="T15" t="s">
-        <v>316</v>
-      </c>
-      <c r="U15">
+        <v>313</v>
+      </c>
+      <c r="U15" t="s">
+        <v>315</v>
+      </c>
+      <c r="V15">
         <v>47.625211899999996</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-122.51232109999999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2493,31 +2623,34 @@
         <v>155</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="P16" t="s">
-        <v>257</v>
+      <c r="P16" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="Q16" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="R16" t="s">
-        <v>309</v>
-      </c>
-      <c r="T16" t="s">
-        <v>316</v>
-      </c>
-      <c r="U16">
+        <v>300</v>
+      </c>
+      <c r="S16" t="s">
+        <v>308</v>
+      </c>
+      <c r="U16" t="s">
+        <v>315</v>
+      </c>
+      <c r="V16">
         <v>47.678266299999997</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-122.5223933</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2555,29 +2688,32 @@
         <v>156</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="P17" t="s">
-        <v>258</v>
+      <c r="P17" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="Q17" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="R17" t="s">
-        <v>305</v>
-      </c>
-      <c r="T17" t="s">
-        <v>316</v>
-      </c>
-      <c r="U17">
+        <v>302</v>
+      </c>
+      <c r="S17" t="s">
+        <v>304</v>
+      </c>
+      <c r="U17" t="s">
+        <v>315</v>
+      </c>
+      <c r="V17">
         <v>47.626833150000003</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-122.6637104869211</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2612,26 +2748,29 @@
         <v>157</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O18" s="2"/>
-      <c r="P18" t="s">
-        <v>259</v>
+      <c r="P18" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="Q18" t="s">
-        <v>299</v>
-      </c>
-      <c r="T18" t="s">
-        <v>316</v>
-      </c>
-      <c r="U18">
+        <v>258</v>
+      </c>
+      <c r="R18" t="s">
+        <v>298</v>
+      </c>
+      <c r="U18" t="s">
+        <v>315</v>
+      </c>
+      <c r="V18">
         <v>48.121153199999988</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-123.43484979999999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2669,29 +2808,32 @@
         <v>158</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O19" s="2"/>
-      <c r="P19" t="s">
-        <v>260</v>
+      <c r="P19" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="Q19" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="R19" t="s">
-        <v>308</v>
-      </c>
-      <c r="T19" t="s">
-        <v>316</v>
-      </c>
-      <c r="U19">
+        <v>301</v>
+      </c>
+      <c r="S19" t="s">
+        <v>307</v>
+      </c>
+      <c r="U19" t="s">
+        <v>315</v>
+      </c>
+      <c r="V19">
         <v>48.100929899999997</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-123.4121483</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2726,26 +2868,29 @@
         <v>159</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" t="s">
-        <v>261</v>
+      <c r="P20" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="Q20" t="s">
-        <v>296</v>
-      </c>
-      <c r="T20" t="s">
-        <v>316</v>
-      </c>
-      <c r="U20">
+        <v>260</v>
+      </c>
+      <c r="R20" t="s">
+        <v>295</v>
+      </c>
+      <c r="U20" t="s">
+        <v>315</v>
+      </c>
+      <c r="V20">
         <v>48.116146299999997</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-122.75177789999999</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2780,29 +2925,32 @@
         <v>160</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O21" s="2"/>
-      <c r="P21" t="s">
-        <v>251</v>
+      <c r="P21" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="Q21" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="R21" t="s">
-        <v>305</v>
-      </c>
-      <c r="T21" t="s">
-        <v>316</v>
-      </c>
-      <c r="U21">
+        <v>296</v>
+      </c>
+      <c r="S21" t="s">
+        <v>304</v>
+      </c>
+      <c r="U21" t="s">
+        <v>315</v>
+      </c>
+      <c r="V21">
         <v>47.566467699999997</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-122.6257073</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2840,29 +2988,32 @@
         <v>161</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O22" s="2"/>
-      <c r="P22" t="s">
-        <v>262</v>
+      <c r="P22" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="Q22" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="R22" t="s">
-        <v>305</v>
-      </c>
-      <c r="T22" t="s">
-        <v>316</v>
-      </c>
-      <c r="U22">
+        <v>296</v>
+      </c>
+      <c r="S22" t="s">
+        <v>304</v>
+      </c>
+      <c r="U22" t="s">
+        <v>315</v>
+      </c>
+      <c r="V22">
         <v>47.557315799999998</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-122.6668559</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2894,31 +3045,34 @@
         <v>162</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="P23" t="s">
-        <v>251</v>
+      <c r="P23" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="Q23" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="R23" t="s">
-        <v>305</v>
-      </c>
-      <c r="T23" t="s">
-        <v>316</v>
-      </c>
-      <c r="U23">
+        <v>296</v>
+      </c>
+      <c r="S23" t="s">
+        <v>304</v>
+      </c>
+      <c r="U23" t="s">
+        <v>315</v>
+      </c>
+      <c r="V23">
         <v>47.358777699999997</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-122.59477649999999</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2953,29 +3107,32 @@
         <v>163</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O24" s="2"/>
-      <c r="P24" t="s">
-        <v>263</v>
+      <c r="P24" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="Q24" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="R24" t="s">
-        <v>305</v>
-      </c>
-      <c r="T24" t="s">
-        <v>316</v>
-      </c>
-      <c r="U24">
+        <v>296</v>
+      </c>
+      <c r="S24" t="s">
+        <v>304</v>
+      </c>
+      <c r="U24" t="s">
+        <v>315</v>
+      </c>
+      <c r="V24">
         <v>47.650721599999997</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-122.34967810000001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3013,32 +3170,35 @@
         <v>164</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O25" s="2"/>
-      <c r="P25" t="s">
-        <v>264</v>
+      <c r="P25" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="Q25" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="R25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S25" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="T25" t="s">
-        <v>316</v>
-      </c>
-      <c r="U25">
+        <v>327</v>
+      </c>
+      <c r="U25" t="s">
+        <v>315</v>
+      </c>
+      <c r="V25">
         <v>47.568571900000002</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-122.3837814</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3073,29 +3233,32 @@
         <v>165</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O26" s="2"/>
-      <c r="P26" t="s">
-        <v>265</v>
+      <c r="P26" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="Q26" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="R26" t="s">
-        <v>305</v>
-      </c>
-      <c r="T26" t="s">
-        <v>316</v>
-      </c>
-      <c r="U26">
+        <v>328</v>
+      </c>
+      <c r="S26" t="s">
+        <v>304</v>
+      </c>
+      <c r="U26" t="s">
+        <v>315</v>
+      </c>
+      <c r="V26">
         <v>47.342472299999997</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-123.1627213</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3130,23 +3293,24 @@
         <v>166</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O27" s="2"/>
-      <c r="P27" t="s">
-        <v>266</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s">
-        <v>296</v>
-      </c>
-      <c r="U27">
+        <v>265</v>
+      </c>
+      <c r="R27" t="s">
+        <v>295</v>
+      </c>
+      <c r="V27">
         <v>47.690798200000003</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-122.356280924308</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3181,26 +3345,27 @@
         <v>167</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O28" s="2"/>
-      <c r="P28" t="s">
-        <v>267</v>
-      </c>
-      <c r="R28" t="s">
-        <v>309</v>
-      </c>
-      <c r="T28" t="s">
-        <v>316</v>
-      </c>
-      <c r="U28">
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s">
+        <v>266</v>
+      </c>
+      <c r="S28" t="s">
+        <v>308</v>
+      </c>
+      <c r="U28" t="s">
+        <v>315</v>
+      </c>
+      <c r="V28">
         <v>47.624004300000003</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-122.3494506540469</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3232,25 +3397,25 @@
         <v>168</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
-      </c>
-      <c r="P29" t="s">
-        <v>268</v>
-      </c>
-      <c r="S29" t="s">
-        <v>330</v>
+        <v>221</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>267</v>
       </c>
       <c r="T29" t="s">
-        <v>316</v>
-      </c>
-      <c r="U29">
+        <v>329</v>
+      </c>
+      <c r="U29" t="s">
+        <v>315</v>
+      </c>
+      <c r="V29">
         <v>47.674787700000003</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-122.3899409</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3282,32 +3447,33 @@
         <v>169</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O30" s="2"/>
-      <c r="P30" t="s">
-        <v>269</v>
-      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="R30" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="S30" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="T30" t="s">
-        <v>318</v>
-      </c>
-      <c r="U30">
+        <v>330</v>
+      </c>
+      <c r="U30" t="s">
+        <v>317</v>
+      </c>
+      <c r="V30">
         <v>47.585989300000001</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-122.3044898</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3339,32 +3505,33 @@
         <v>170</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O31" s="2"/>
-      <c r="P31" t="s">
-        <v>270</v>
-      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" t="s">
+        <v>269</v>
+      </c>
+      <c r="R31" t="s">
+        <v>332</v>
+      </c>
+      <c r="S31" t="s">
+        <v>304</v>
+      </c>
+      <c r="T31" t="s">
         <v>333</v>
       </c>
-      <c r="R31" t="s">
-        <v>305</v>
-      </c>
-      <c r="S31" t="s">
-        <v>334</v>
-      </c>
-      <c r="T31" t="s">
-        <v>318</v>
-      </c>
-      <c r="U31">
+      <c r="U31" t="s">
+        <v>317</v>
+      </c>
+      <c r="V31">
         <v>47.602802699999998</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-122.3196872</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3396,32 +3563,33 @@
         <v>171</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O32" s="2"/>
-      <c r="P32" t="s">
-        <v>271</v>
-      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="R32" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="S32" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="T32" t="s">
-        <v>318</v>
-      </c>
-      <c r="U32">
+        <v>334</v>
+      </c>
+      <c r="U32" t="s">
+        <v>317</v>
+      </c>
+      <c r="V32">
         <v>47.537004699999997</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-122.2829589</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3453,32 +3621,33 @@
         <v>172</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O33" s="2"/>
-      <c r="P33" t="s">
-        <v>272</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="R33" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="S33" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="T33" t="s">
-        <v>318</v>
-      </c>
-      <c r="U33">
+        <v>334</v>
+      </c>
+      <c r="U33" t="s">
+        <v>317</v>
+      </c>
+      <c r="V33">
         <v>47.599009899999999</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-122.32523329999999</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3513,31 +3682,32 @@
         <v>173</v>
       </c>
       <c r="N34" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="P34" t="s">
-        <v>273</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="R34" t="s">
-        <v>305</v>
-      </c>
-      <c r="T34" t="s">
-        <v>316</v>
-      </c>
-      <c r="U34">
+        <v>331</v>
+      </c>
+      <c r="S34" t="s">
+        <v>304</v>
+      </c>
+      <c r="U34" t="s">
+        <v>315</v>
+      </c>
+      <c r="V34">
         <v>47.602537499999997</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-122.3210722</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3572,29 +3742,30 @@
         <v>174</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O35" s="2"/>
-      <c r="P35" t="s">
-        <v>274</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="R35" t="s">
-        <v>305</v>
-      </c>
-      <c r="T35" t="s">
-        <v>316</v>
-      </c>
-      <c r="U35">
+        <v>331</v>
+      </c>
+      <c r="S35" t="s">
+        <v>304</v>
+      </c>
+      <c r="U35" t="s">
+        <v>315</v>
+      </c>
+      <c r="V35">
         <v>47.6024064</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-122.32053740000001</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3632,29 +3803,30 @@
         <v>175</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O36" s="2"/>
-      <c r="P36" t="s">
-        <v>275</v>
-      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="R36" t="s">
-        <v>305</v>
-      </c>
-      <c r="T36" t="s">
-        <v>316</v>
-      </c>
-      <c r="U36">
+        <v>337</v>
+      </c>
+      <c r="S36" t="s">
+        <v>304</v>
+      </c>
+      <c r="U36" t="s">
+        <v>315</v>
+      </c>
+      <c r="V36">
         <v>47.583703499999999</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-122.3051305</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3683,26 +3855,27 @@
         <v>176</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O37" s="2"/>
-      <c r="P37" t="s">
-        <v>276</v>
-      </c>
-      <c r="R37" t="s">
-        <v>309</v>
-      </c>
-      <c r="T37" t="s">
-        <v>316</v>
-      </c>
-      <c r="U37">
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s">
+        <v>275</v>
+      </c>
+      <c r="S37" t="s">
+        <v>308</v>
+      </c>
+      <c r="U37" t="s">
+        <v>315</v>
+      </c>
+      <c r="V37">
         <v>47.598443349999997</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-122.3298977927633</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3734,29 +3907,30 @@
         <v>177</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O38" s="2"/>
-      <c r="P38" t="s">
-        <v>277</v>
-      </c>
+      <c r="P38" s="2"/>
       <c r="Q38" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="R38" t="s">
-        <v>305</v>
-      </c>
-      <c r="T38" t="s">
-        <v>316</v>
-      </c>
-      <c r="U38">
+        <v>338</v>
+      </c>
+      <c r="S38" t="s">
+        <v>304</v>
+      </c>
+      <c r="U38" t="s">
+        <v>315</v>
+      </c>
+      <c r="V38">
         <v>47.972865200000001</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-122.20105359999999</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3791,31 +3965,32 @@
         <v>178</v>
       </c>
       <c r="N39" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="P39" t="s">
-        <v>278</v>
-      </c>
+      <c r="P39" s="2"/>
       <c r="Q39" t="s">
+        <v>277</v>
+      </c>
+      <c r="R39" t="s">
+        <v>339</v>
+      </c>
+      <c r="T39" t="s">
         <v>340</v>
       </c>
-      <c r="S39" t="s">
-        <v>341</v>
-      </c>
-      <c r="T39" t="s">
-        <v>316</v>
-      </c>
-      <c r="U39">
+      <c r="U39" t="s">
+        <v>315</v>
+      </c>
+      <c r="V39">
         <v>48.004997549999999</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-122.1974489211551</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3847,29 +4022,30 @@
         <v>179</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O40" s="2"/>
-      <c r="P40" t="s">
-        <v>279</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s">
+        <v>278</v>
+      </c>
+      <c r="S40" t="s">
+        <v>341</v>
+      </c>
+      <c r="T40" t="s">
         <v>342</v>
       </c>
-      <c r="S40" t="s">
-        <v>343</v>
-      </c>
-      <c r="T40" t="s">
-        <v>316</v>
-      </c>
-      <c r="U40">
+      <c r="U40" t="s">
+        <v>315</v>
+      </c>
+      <c r="V40">
         <v>47.941427300000001</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-122.216249</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3901,31 +4077,32 @@
         <v>180</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="P41" t="s">
-        <v>280</v>
-      </c>
+      <c r="P41" s="2"/>
       <c r="Q41" t="s">
+        <v>279</v>
+      </c>
+      <c r="R41" t="s">
+        <v>343</v>
+      </c>
+      <c r="T41" t="s">
         <v>344</v>
       </c>
-      <c r="S41" t="s">
-        <v>345</v>
-      </c>
-      <c r="T41" t="s">
-        <v>316</v>
-      </c>
-      <c r="U41">
+      <c r="U41" t="s">
+        <v>315</v>
+      </c>
+      <c r="V41">
         <v>48.742159600000001</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-122.4695352</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3957,31 +4134,32 @@
         <v>181</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="P42" t="s">
-        <v>280</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s">
+        <v>279</v>
+      </c>
+      <c r="R42" t="s">
+        <v>343</v>
+      </c>
+      <c r="T42" t="s">
         <v>344</v>
       </c>
-      <c r="S42" t="s">
-        <v>345</v>
-      </c>
-      <c r="T42" t="s">
-        <v>316</v>
-      </c>
-      <c r="U42">
+      <c r="U42" t="s">
+        <v>315</v>
+      </c>
+      <c r="V42">
         <v>48.713908000000004</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-122.5061872</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4013,29 +4191,30 @@
         <v>182</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O43" s="2"/>
-      <c r="P43" t="s">
-        <v>281</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s">
-        <v>344</v>
-      </c>
-      <c r="S43" t="s">
-        <v>346</v>
+        <v>280</v>
+      </c>
+      <c r="R43" t="s">
+        <v>343</v>
       </c>
       <c r="T43" t="s">
-        <v>316</v>
-      </c>
-      <c r="U43">
+        <v>345</v>
+      </c>
+      <c r="U43" t="s">
+        <v>315</v>
+      </c>
+      <c r="V43">
         <v>48.715763199999998</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-122.50696600000001</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4066,23 +4245,23 @@
       <c r="M44" t="s">
         <v>183</v>
       </c>
-      <c r="P44" t="s">
-        <v>282</v>
-      </c>
       <c r="Q44" t="s">
-        <v>344</v>
-      </c>
-      <c r="T44" t="s">
-        <v>316</v>
-      </c>
-      <c r="U44">
+        <v>281</v>
+      </c>
+      <c r="R44" t="s">
+        <v>343</v>
+      </c>
+      <c r="U44" t="s">
+        <v>315</v>
+      </c>
+      <c r="V44">
         <v>48.724497499999998</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-122.501024</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4113,23 +4292,23 @@
       <c r="M45" t="s">
         <v>184</v>
       </c>
-      <c r="P45" t="s">
-        <v>282</v>
-      </c>
       <c r="Q45" t="s">
-        <v>344</v>
-      </c>
-      <c r="T45" t="s">
-        <v>316</v>
-      </c>
-      <c r="U45">
+        <v>281</v>
+      </c>
+      <c r="R45" t="s">
+        <v>343</v>
+      </c>
+      <c r="U45" t="s">
+        <v>315</v>
+      </c>
+      <c r="V45">
         <v>48.761914099999998</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-122.49527999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4161,20 +4340,21 @@
         <v>185</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O46" s="2"/>
-      <c r="T46" t="s">
-        <v>318</v>
-      </c>
-      <c r="U46">
+      <c r="P46" s="2"/>
+      <c r="U46" t="s">
+        <v>317</v>
+      </c>
+      <c r="V46">
         <v>48.767379800000001</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-122.464355</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4209,28 +4389,29 @@
         <v>186</v>
       </c>
       <c r="N47" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="O47" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="P47" t="s">
-        <v>283</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s">
-        <v>299</v>
-      </c>
-      <c r="T47" t="s">
-        <v>318</v>
-      </c>
-      <c r="U47">
+        <v>282</v>
+      </c>
+      <c r="R47" t="s">
+        <v>298</v>
+      </c>
+      <c r="U47" t="s">
+        <v>317</v>
+      </c>
+      <c r="V47">
         <v>47.607400200000001</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-122.3429558</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4268,32 +4449,33 @@
         <v>187</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O48" s="2"/>
-      <c r="P48" t="s">
-        <v>284</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="R48" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="S48" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="T48" t="s">
-        <v>315</v>
-      </c>
-      <c r="U48">
+        <v>340</v>
+      </c>
+      <c r="U48" t="s">
+        <v>314</v>
+      </c>
+      <c r="V48">
         <v>47.659122500000002</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-122.3077363</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4331,29 +4513,30 @@
         <v>188</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O49" s="2"/>
-      <c r="P49" t="s">
-        <v>285</v>
-      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="R49" t="s">
-        <v>308</v>
-      </c>
-      <c r="T49" t="s">
-        <v>316</v>
-      </c>
-      <c r="U49">
+        <v>295</v>
+      </c>
+      <c r="S49" t="s">
+        <v>307</v>
+      </c>
+      <c r="U49" t="s">
+        <v>315</v>
+      </c>
+      <c r="V49">
         <v>47.614437199999998</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-122.3123836</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4388,29 +4571,30 @@
         <v>189</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O50" s="2"/>
-      <c r="P50" t="s">
-        <v>286</v>
-      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="R50" t="s">
-        <v>305</v>
-      </c>
-      <c r="T50" t="s">
-        <v>316</v>
-      </c>
-      <c r="U50">
+        <v>336</v>
+      </c>
+      <c r="S50" t="s">
+        <v>304</v>
+      </c>
+      <c r="U50" t="s">
+        <v>315</v>
+      </c>
+      <c r="V50">
         <v>47.61507185</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-122.3177889625876</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4445,29 +4629,30 @@
         <v>190</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O51" s="2"/>
-      <c r="P51" t="s">
-        <v>287</v>
-      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="R51" t="s">
-        <v>305</v>
-      </c>
-      <c r="T51" t="s">
-        <v>316</v>
-      </c>
-      <c r="U51">
+        <v>331</v>
+      </c>
+      <c r="S51" t="s">
+        <v>304</v>
+      </c>
+      <c r="U51" t="s">
+        <v>315</v>
+      </c>
+      <c r="V51">
         <v>47.621400800000004</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-122.33106840000001</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4502,29 +4687,30 @@
         <v>191</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O52" s="2"/>
-      <c r="P52" t="s">
-        <v>288</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" t="s">
-        <v>333</v>
-      </c>
-      <c r="S52" t="s">
-        <v>347</v>
+        <v>287</v>
+      </c>
+      <c r="R52" t="s">
+        <v>332</v>
       </c>
       <c r="T52" t="s">
-        <v>316</v>
-      </c>
-      <c r="U52">
+        <v>346</v>
+      </c>
+      <c r="U52" t="s">
+        <v>315</v>
+      </c>
+      <c r="V52">
         <v>47.612064649999994</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-122.3249975942289</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4559,32 +4745,33 @@
         <v>192</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O53" s="2"/>
-      <c r="P53" t="s">
-        <v>287</v>
-      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="R53" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="S53" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="T53" t="s">
-        <v>316</v>
-      </c>
-      <c r="U53">
+        <v>346</v>
+      </c>
+      <c r="U53" t="s">
+        <v>315</v>
+      </c>
+      <c r="V53">
         <v>47.6222633</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-122.3308754</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4616,29 +4803,30 @@
         <v>193</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O54" s="2"/>
-      <c r="P54" t="s">
-        <v>289</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="R54" t="s">
-        <v>305</v>
-      </c>
-      <c r="T54" t="s">
-        <v>316</v>
-      </c>
-      <c r="U54">
+        <v>347</v>
+      </c>
+      <c r="S54" t="s">
+        <v>304</v>
+      </c>
+      <c r="U54" t="s">
+        <v>315</v>
+      </c>
+      <c r="V54">
         <v>47.6582832</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-122.30476400000001</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4670,26 +4858,27 @@
         <v>194</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O55" s="2"/>
-      <c r="P55" t="s">
-        <v>247</v>
-      </c>
-      <c r="R55" t="s">
-        <v>305</v>
-      </c>
-      <c r="T55" t="s">
-        <v>316</v>
-      </c>
-      <c r="U55">
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s">
+        <v>246</v>
+      </c>
+      <c r="S55" t="s">
+        <v>304</v>
+      </c>
+      <c r="U55" t="s">
+        <v>315</v>
+      </c>
+      <c r="V55">
         <v>47.713153400000003</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-122.3212307</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4727,29 +4916,30 @@
         <v>195</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O56" s="2"/>
-      <c r="P56" t="s">
-        <v>290</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="R56" t="s">
-        <v>305</v>
-      </c>
-      <c r="T56" t="s">
-        <v>316</v>
-      </c>
-      <c r="U56">
+        <v>348</v>
+      </c>
+      <c r="S56" t="s">
+        <v>304</v>
+      </c>
+      <c r="U56" t="s">
+        <v>315</v>
+      </c>
+      <c r="V56">
         <v>47.621868500000012</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-122.1169542077627</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4784,29 +4974,30 @@
         <v>196</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O57" s="2"/>
-      <c r="P57" t="s">
-        <v>291</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="R57" t="s">
-        <v>308</v>
-      </c>
-      <c r="T57" t="s">
-        <v>320</v>
-      </c>
-      <c r="U57">
+        <v>298</v>
+      </c>
+      <c r="S57" t="s">
+        <v>307</v>
+      </c>
+      <c r="U57" t="s">
+        <v>319</v>
+      </c>
+      <c r="V57">
         <v>47.644548699999987</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-122.1369833</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4841,26 +5032,27 @@
         <v>197</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O58" s="2"/>
-      <c r="P58" t="s">
-        <v>292</v>
-      </c>
-      <c r="R58" t="s">
-        <v>308</v>
-      </c>
-      <c r="T58" t="s">
-        <v>316</v>
-      </c>
-      <c r="U58">
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s">
+        <v>291</v>
+      </c>
+      <c r="S58" t="s">
+        <v>307</v>
+      </c>
+      <c r="U58" t="s">
+        <v>315</v>
+      </c>
+      <c r="V58">
         <v>47.696440299999999</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-122.1823347</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4895,25 +5087,26 @@
         <v>198</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O59" s="2"/>
-      <c r="P59" t="s">
-        <v>293</v>
-      </c>
+      <c r="P59" s="2"/>
       <c r="Q59" t="s">
-        <v>344</v>
-      </c>
-      <c r="S59" t="s">
-        <v>350</v>
+        <v>292</v>
+      </c>
+      <c r="R59" t="s">
+        <v>343</v>
       </c>
       <c r="T59" t="s">
-        <v>316</v>
-      </c>
-      <c r="U59">
+        <v>349</v>
+      </c>
+      <c r="U59" t="s">
+        <v>315</v>
+      </c>
+      <c r="V59">
         <v>48.849283399999997</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-122.4773301</v>
       </c>
     </row>
@@ -4926,54 +5119,53 @@
     <hyperlink ref="N6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="N7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="N8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="N9" r:id="rId8" location="/p/64" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="N15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="N17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="N19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="N20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="N23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="N26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="N27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="N28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="N30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="N32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="N33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="N34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="N36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="N37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="N38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="N40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="N42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="N49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N52" r:id="rId48" location="/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="N54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="N55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="N56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="N57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="N58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="N59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="N38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N46" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N47" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N52" r:id="rId47" location="/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N55" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N56" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N57" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N59" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/eBuildings.xlsx
+++ b/eBuildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irikol/Desktop/Environment/Shift Zero/WA-Electric-Buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4755306-3239-B042-A1C5-5236420810E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9465CFB9-27E0-DA44-82E0-859BC3E530EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="-18680" windowWidth="26860" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="426">
   <si>
     <t>Timestamp</t>
   </si>
@@ -719,16 +719,7 @@
     <t>https://www.seattleopera.org/about/opera-center/</t>
   </si>
   <si>
-    <t>Green Canopy Case study</t>
-  </si>
-  <si>
-    <t>https://exemplarybuilding.housingconsortium.org/</t>
-  </si>
-  <si>
     <t>https://exemplarybuilding.housingconsortium.org/our-demonstration-projects/</t>
-  </si>
-  <si>
-    <t>https://www.20by2020challenge.org/scidpda-north-lot</t>
   </si>
   <si>
     <t>http://runberg.com/work/cypress/</t>
@@ -1156,9 +1147,6 @@
     <t>https://ecotope.com/energy-efficient-assisted-living-in-gig-harbor/</t>
   </si>
   <si>
-    <t>http://runberg.com/wp-content/uploads/2020/10/ZEBx-Case-Study_Batik_2020-2.pdf</t>
-  </si>
-  <si>
     <t>http://runberg.com/work/batik/</t>
   </si>
   <si>
@@ -1265,6 +1253,108 @@
   </si>
   <si>
     <t>https://www.7directionsarchitects.com/wp-content/uploads/2016/01/5807_105_FPO-1350x560.jpg</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/5fddd049109152533653ab0c/1613672638060-6FEZOHZDRXDJ9SDDYK23/Taproot_Old_and_New.jpg?format=2500w</t>
+  </si>
+  <si>
+    <t>https://www.seattleopera.org/globalassets/images/galleries/opera-center/about-soatc/01_gallery_soatc-about.jpg</t>
+  </si>
+  <si>
+    <t>https://www.greencanopynode.com/</t>
+  </si>
+  <si>
+    <t>https://modernhb.com/wp-content/uploads/sites/6/2021/03/green-canopy-smaller-image-300x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.desc.org/what-we-do/housing/hobson-place-2/</t>
+  </si>
+  <si>
+    <t>https://www.desc.org/wp-content/uploads/2021/11/Hobson2-11-17-21-2.jpg</t>
+  </si>
+  <si>
+    <t>http://d2f8l4t0zpiyim.cloudfront.net/000_clients/163841/page/w400-1638412122936Xp.jpg</t>
+  </si>
+  <si>
+    <t>https://exemplarybuilding.housingconsortium.org/wp-content/uploads/sites/2/2019/11/Othello_BldgD_environmental-diagram-with-labels-final.jpg</t>
+  </si>
+  <si>
+    <t>https://scidpda.org/north-lot/</t>
+  </si>
+  <si>
+    <t>https://scidpda.org/wp/wp-content/uploads/2020/04/bldg-b-view_bldg-a-lightened-300x300.png</t>
+  </si>
+  <si>
+    <t>http://runberg.com/wp-content/uploads/Projects/Batik/Runberg-batik-exterior-aerial-3.jpg</t>
+  </si>
+  <si>
+    <t>http://runberg.com/wp-content/uploads/2019/08/Runberg-Cypress_-45-1.jpg</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/545be7d6e4b0cb4150e4e834/1614122480334-T1IHKH78AOGJJ6NAN79E/Giddens%2B%2526%2BLWGMS_MW_004_web.jpg?format=500w</t>
+  </si>
+  <si>
+    <t>https://cdnassets.hw.net/dims4/GG/ee9aad7/2147483647/thumbnail/876x580%3E/quality/90/?url=https%3A%2F%2Fcdnassets.hw.net%2F18%2F44%2Fe1f17a2d4ccfb2d7b782b8f4d5e4%2F045f1f18-809a-41c9-9709-ba69ad73db5c.jpg</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0f1221_5cc9940e6cb04682940c4e4117d6b96f~mv2_d_2000_1325_s_2.jpg/v1/fill/w_721,h_738,al_c,q_85,usm_0.66_1.00_0.01/0f1221_5cc9940e6cb04682940c4e4117d6b96f~mv2_d_2000_1325_s_2.webp</t>
+  </si>
+  <si>
+    <t>https://www.hoffmancorp.com/wp-content/uploads/2020/01/zf_WSU_Everett_32-2160x1440.jpg</t>
+  </si>
+  <si>
+    <t>https://ccsww.org/wp-content/uploads/2019/08/CP-4-338x450.jpg</t>
+  </si>
+  <si>
+    <t>https://sustainableconnections.org/wp-content/uploads/1141-Grant-St.-Instagram-or-Facebook-1.jpg</t>
+  </si>
+  <si>
+    <t>https://sustainableconnections.org/wp-content/uploads/hawthorne-exterior_-night.jpeg</t>
+  </si>
+  <si>
+    <t>https://sustainableconnections.org/wp-content/uploads/bayside-exterior-2.jpg</t>
+  </si>
+  <si>
+    <t>http://bellinghamschools.org/wp-content/uploads/2016/05/Sunnyland-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.seattleaquarium.org/sites/default/files/images/WATERS%20EDGE_0.jpg</t>
+  </si>
+  <si>
+    <t>https://foster.uw.edu/magazine/wp-content/uploads/2021/12/Founders-Hall-NWperspective-web.jpg</t>
+  </si>
+  <si>
+    <t>http://www.seattle24x7.com/wp-content/uploads/2013/04/BullittCenterOpening.jpg</t>
+  </si>
+  <si>
+    <t>https://cdnassets.hw.net/dims4/GG/d8e6396/2147483647/thumbnail/876x580%3E/quality/90/?url=https%3A%2F%2Fcdnassets.hw.net%2F03%2F9d%2F195cc63245189872b50f65f7d637%2F3dca6c29-ca0e-46a4-80f0-a8d135a5a8e2.jpg</t>
+  </si>
+  <si>
+    <t>https://metropolismag.com/wp-content/uploads/2021/07/Runberg_Sitka_1_Christophe-Servieres.jpg</t>
+  </si>
+  <si>
+    <t>https://media.equityapartments.com/images/q_auto/f_auto/fl_lossy/4217-102/cascade-apartments-exterior</t>
+  </si>
+  <si>
+    <t>http://ecotope.com/wp-content/uploads/stackhouse-exterior.jpg</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/uw-s3-cdn/wp-content/uploads/sites/48/2013/03/06201247/Intellectual-House-cropped-1140x478.jpg</t>
+  </si>
+  <si>
+    <t>https://ecotope.com/wp-content/uploads/Northgate-2-Aerial.png</t>
+  </si>
+  <si>
+    <t>https://ecotope.com/wp-content/uploads/MG_3151.jpg</t>
+  </si>
+  <si>
+    <t>https://news.microsoft.com/wp-content/uploads/prod/sites/370/2019/06/Final-Sammamish-2-1000x600.jpg</t>
+  </si>
+  <si>
+    <t>http://projects.phius.org/uploads/1482BackExterior_1573141849.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pivotalventures.org/-/media/Images/PivotalVentures/logos/Mobile-Header-Logo.ashx?rev=f37b320948184d0face2a0d28f0e70f0</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,6 +1390,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF1A1AA6"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <family val="1"/>
     </font>
@@ -1343,7 +1439,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1354,6 +1450,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1695,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="M24" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1729,16 +1826,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1753,22 +1850,22 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>6</v>
@@ -1828,19 +1925,19 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="R2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="T2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V2">
         <v>47.657193399999997</v>
@@ -1888,16 +1985,16 @@
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="U3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V3">
         <v>47.658373500000003</v>
@@ -1938,22 +2035,22 @@
         <v>143</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V4">
         <v>47.542624799999999</v>
@@ -1998,22 +2095,22 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="T5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="U5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="V5">
         <v>46.4551552</v>
@@ -2055,16 +2152,16 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V6">
         <v>47.483364100000003</v>
@@ -2109,16 +2206,16 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V7">
         <v>47.529844300000001</v>
@@ -2166,16 +2263,16 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="U8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V8">
         <v>47.533116700000008</v>
@@ -2222,23 +2319,23 @@
         <v>148</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V9">
         <v>47.449272099999988</v>
@@ -2286,22 +2383,22 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="U10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V10">
         <v>47.112094650000003</v>
@@ -2349,16 +2446,16 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="U11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V11">
         <v>47.950199150000003</v>
@@ -2406,19 +2503,19 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="T12" t="s">
+        <v>309</v>
+      </c>
+      <c r="U12" t="s">
         <v>312</v>
-      </c>
-      <c r="U12" t="s">
-        <v>315</v>
       </c>
       <c r="V12">
         <v>47.0760893</v>
@@ -2463,16 +2560,16 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="U13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V13">
         <v>47.047951900000001</v>
@@ -2513,22 +2610,22 @@
         <v>153</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="U14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="V14">
         <v>47.046908999999999</v>
@@ -2573,19 +2670,19 @@
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V15">
         <v>47.625211899999996</v>
@@ -2623,25 +2720,25 @@
         <v>155</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V16">
         <v>47.678266299999997</v>
@@ -2692,19 +2789,19 @@
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V17">
         <v>47.626833150000003</v>
@@ -2752,16 +2849,16 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="U18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V18">
         <v>48.121153199999988</v>
@@ -2812,19 +2909,19 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V19">
         <v>48.100929899999997</v>
@@ -2872,16 +2969,16 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="U20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V20">
         <v>48.116146299999997</v>
@@ -2929,19 +3026,19 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V21">
         <v>47.566467699999997</v>
@@ -2992,19 +3089,19 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V22">
         <v>47.557315799999998</v>
@@ -3045,25 +3142,25 @@
         <v>162</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V23">
         <v>47.358777699999997</v>
@@ -3111,19 +3208,19 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="R24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V24">
         <v>47.650721599999997</v>
@@ -3174,22 +3271,22 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R25" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T25" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="U25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V25">
         <v>47.568571900000002</v>
@@ -3237,19 +3334,19 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R26" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V26">
         <v>47.342472299999997</v>
@@ -3296,12 +3393,14 @@
         <v>219</v>
       </c>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="Q27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="R27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="V27">
         <v>47.690798200000003</v>
@@ -3348,15 +3447,17 @@
         <v>220</v>
       </c>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="Q28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V28">
         <v>47.624004300000003</v>
@@ -3397,16 +3498,19 @@
         <v>168</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>394</v>
+      </c>
+      <c r="P29" t="s">
+        <v>395</v>
       </c>
       <c r="Q29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="U29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V29">
         <v>47.674787700000003</v>
@@ -3447,24 +3551,26 @@
         <v>169</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="Q30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R30" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="T30" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="U30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V30">
         <v>47.585989300000001</v>
@@ -3505,24 +3611,26 @@
         <v>170</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="Q31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="R31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="U31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V31">
         <v>47.602802699999998</v>
@@ -3563,24 +3671,26 @@
         <v>171</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="P32" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="Q32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R32" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S32" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V32">
         <v>47.537004699999997</v>
@@ -3621,24 +3731,26 @@
         <v>172</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="P33" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="Q33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="R33" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="S33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="T33" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V33">
         <v>47.599009899999999</v>
@@ -3682,23 +3794,22 @@
         <v>173</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="P34" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="Q34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R34" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V34">
         <v>47.602537499999997</v>
@@ -3742,21 +3853,23 @@
         <v>174</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="P35" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="Q35" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="R35" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S35" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V35">
         <v>47.6024064</v>
@@ -3803,21 +3916,23 @@
         <v>175</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="P36" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="Q36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="S36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U36" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V36">
         <v>47.583703499999999</v>
@@ -3855,18 +3970,20 @@
         <v>176</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="P37" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="Q37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S37" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V37">
         <v>47.598443349999997</v>
@@ -3907,21 +4024,23 @@
         <v>177</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="P38" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="Q38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="S38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V38">
         <v>47.972865200000001</v>
@@ -3965,23 +4084,25 @@
         <v>178</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="P39" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="Q39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="R39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="T39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="U39" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V39">
         <v>48.004997549999999</v>
@@ -4022,21 +4143,23 @@
         <v>179</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="P40" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="Q40" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="U40" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V40">
         <v>47.941427300000001</v>
@@ -4077,23 +4200,25 @@
         <v>180</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="P41" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="Q41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="T41" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="U41" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V41">
         <v>48.742159600000001</v>
@@ -4134,23 +4259,25 @@
         <v>181</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="P42" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="Q42" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="T42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="U42" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V42">
         <v>48.713908000000004</v>
@@ -4191,21 +4318,23 @@
         <v>182</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="P43" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="Q43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="R43" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="T43" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U43" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V43">
         <v>48.715763199999998</v>
@@ -4246,13 +4375,13 @@
         <v>183</v>
       </c>
       <c r="Q44" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R44" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="U44" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V44">
         <v>48.724497499999998</v>
@@ -4293,13 +4422,13 @@
         <v>184</v>
       </c>
       <c r="Q45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="U45" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V45">
         <v>48.761914099999998</v>
@@ -4340,12 +4469,14 @@
         <v>185</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="P46" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="U46" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V46">
         <v>48.767379800000001</v>
@@ -4389,20 +4520,22 @@
         <v>186</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="P47" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="Q47" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="R47" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="U47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V47">
         <v>47.607400200000001</v>
@@ -4411,7 +4544,7 @@
         <v>-122.3429558</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4449,24 +4582,26 @@
         <v>187</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="P48" s="6" t="s">
+        <v>414</v>
+      </c>
       <c r="Q48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R48" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T48" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="U48" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V48">
         <v>47.659122500000002</v>
@@ -4513,21 +4648,23 @@
         <v>188</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
+      <c r="P49" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="Q49" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="R49" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U49" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V49">
         <v>47.614437199999998</v>
@@ -4571,21 +4708,23 @@
         <v>189</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="P50" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="Q50" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="S50" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U50" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V50">
         <v>47.61507185</v>
@@ -4629,21 +4768,23 @@
         <v>190</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+      <c r="P51" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="Q51" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R51" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S51" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V51">
         <v>47.621400800000004</v>
@@ -4687,21 +4828,23 @@
         <v>191</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="P52" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="Q52" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R52" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="T52" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="U52" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V52">
         <v>47.612064649999994</v>
@@ -4745,24 +4888,26 @@
         <v>192</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
+      <c r="P53" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="Q53" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R53" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S53" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T53" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="U53" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V53">
         <v>47.6222633</v>
@@ -4803,21 +4948,23 @@
         <v>193</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="P54" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="Q54" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="R54" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S54" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V54">
         <v>47.6582832</v>
@@ -4858,18 +5005,20 @@
         <v>194</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+      <c r="P55" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="Q55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S55" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U55" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V55">
         <v>47.713153400000003</v>
@@ -4916,21 +5065,23 @@
         <v>195</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
+      <c r="P56" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="Q56" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R56" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="S56" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U56" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V56">
         <v>47.621868500000012</v>
@@ -4974,21 +5125,23 @@
         <v>196</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
+      <c r="P57" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="Q57" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="R57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="V57">
         <v>47.644548699999987</v>
@@ -5032,18 +5185,20 @@
         <v>197</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
+      <c r="P58" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="Q58" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S58" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U58" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V58">
         <v>47.696440299999999</v>
@@ -5087,21 +5242,23 @@
         <v>198</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
+      <c r="P59" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="Q59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R59" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="T59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="U59" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V59">
         <v>48.849283399999997</v>
@@ -5138,34 +5295,31 @@
     <hyperlink ref="N26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="N27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="N28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="N30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="N32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="N33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="N34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="N36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="N37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="N38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="N40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="N42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N46" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N47" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="N49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N52" r:id="rId47" location="/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="N54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="N55" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="N56" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="N57" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="N58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="N59" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="N31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N35" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N37" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="N38" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N52" r:id="rId43" location="/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O47" r:id="rId51" xr:uid="{7499CA35-4A1B-7245-B5A5-F48B1AB1CBD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
